--- a/Invitaciones_lanzamiento_ISLP_v2.xlsx
+++ b/Invitaciones_lanzamiento_ISLP_v2.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -1070,7 +1071,7 @@
   <dimension ref="A2:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2191,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -3156,4 +3157,18 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>